--- a/Commissions_BejaouiS_SaidiA_total.xlsx
+++ b/Commissions_BejaouiS_SaidiA_total.xlsx
@@ -450,10 +450,10 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>12033.16615</v>
+        <v>12063.774775</v>
       </c>
       <c r="C2" t="n">
-        <v>11675.747775</v>
+        <v>10840.521525</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>13615.508825</v>
+        <v>14116.15072</v>
       </c>
       <c r="C3" t="n">
-        <v>9080.992844999999</v>
+        <v>8740.27887</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>31005.40600999999</v>
+        <v>24550.94450999998</v>
       </c>
       <c r="C4" t="n">
-        <v>14673.34114999999</v>
+        <v>13915.46604999999</v>
       </c>
     </row>
     <row r="5">

--- a/Commissions_BejaouiS_SaidiA_total.xlsx
+++ b/Commissions_BejaouiS_SaidiA_total.xlsx
@@ -450,10 +450,10 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>12063.774775</v>
+        <v>12252.551675</v>
       </c>
       <c r="C2" t="n">
-        <v>10840.521525</v>
+        <v>11995.379025</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>14116.15072</v>
       </c>
       <c r="C3" t="n">
-        <v>8740.27887</v>
+        <v>8926.309370000001</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>24550.94450999998</v>
+        <v>31029.72450999999</v>
       </c>
       <c r="C4" t="n">
-        <v>13915.46604999999</v>
+        <v>16178.28254999998</v>
       </c>
     </row>
     <row r="5">

--- a/Commissions_BejaouiS_SaidiA_total.xlsx
+++ b/Commissions_BejaouiS_SaidiA_total.xlsx
@@ -450,10 +450,10 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>12252.551675</v>
+        <v>11252.551675</v>
       </c>
       <c r="C2" t="n">
-        <v>11995.379025</v>
+        <v>10995.379025</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>14116.15072</v>
+        <v>13916.15072</v>
       </c>
       <c r="C3" t="n">
-        <v>8926.309370000001</v>
+        <v>7926.309370000001</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>31029.72450999999</v>
+        <v>30429.72450999999</v>
       </c>
       <c r="C4" t="n">
-        <v>16178.28254999998</v>
+        <v>16378.28254999998</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>30933.21634</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>15985.18505999999</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>6872.067670000004</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4914.733400000006</v>
       </c>
     </row>
     <row r="7">
